--- a/biology/Microbiologie/Collection_française_de_bactéries_phytopathogènes/Collection_française_de_bactéries_phytopathogènes.xlsx
+++ b/biology/Microbiologie/Collection_française_de_bactéries_phytopathogènes/Collection_française_de_bactéries_phytopathogènes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Collection_fran%C3%A7aise_de_bact%C3%A9ries_phytopathog%C3%A8nes</t>
+          <t>Collection_française_de_bactéries_phytopathogènes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La collection française de bactéries phytopathogènes (CFBP) est une collection de souches bactériennes en majorité phytopathogènes. C'est l'une des cinq collections de micro-organismes du centre international de ressources microbiennes (CIRM), géré par l'Institut national de la recherche agronomique (INRA) dans son centre d'Angers.
-Créée en 1973, cette collection compte actuellement (2016) 5 400 souches appartenant principalement aux genres Acidovorax, Agrobacterium, Bacillus, Brenneria, Burkholderia, Clavibacter, Curtobacterium, Dickeya, Enterobacter, Erwinia, Pantoea, Pectobacterium, Pseudomonas, Ralstonia, Rhatayibacter, Rhodococcus, Streptomyces, Xanthomonas et Xylophilus[1],.
+Créée en 1973, cette collection compte actuellement (2016) 5 400 souches appartenant principalement aux genres Acidovorax, Agrobacterium, Bacillus, Brenneria, Burkholderia, Clavibacter, Curtobacterium, Dickeya, Enterobacter, Erwinia, Pantoea, Pectobacterium, Pseudomonas, Ralstonia, Rhatayibacter, Rhodococcus, Streptomyces, Xanthomonas et Xylophilus,.
 </t>
         </is>
       </c>
